--- a/Constellation.xlsx
+++ b/Constellation.xlsx
@@ -1521,7 +1521,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1552,6 +1552,12 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -1677,16 +1683,16 @@
     <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="6" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
@@ -1701,17 +1707,8 @@
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="6" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="7" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="7" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="7" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="8" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1722,22 +1719,31 @@
     <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="8" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="9" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="9" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="9" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="10" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="9" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="10" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="10" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="11" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="10" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="11" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="11" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="12" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="10" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="11" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">

--- a/Constellation.xlsx
+++ b/Constellation.xlsx
@@ -1521,7 +1521,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1547,12 +1547,6 @@
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
       <family val="2"/>
     </font>
     <font>
@@ -1686,13 +1680,13 @@
     <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="6" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
@@ -1707,8 +1701,17 @@
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="6" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="7" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="7" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="7" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="8" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1719,31 +1722,22 @@
     <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="8" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="9" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="9" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="9" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="10" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="9" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="9" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="10" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="10" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="11" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="11" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="11" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="12" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="11" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="10" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
@@ -2818,7 +2812,7 @@
       <c r="J35" s="5"/>
       <c r="K35" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="26.25">
       <c r="A36" s="1" t="s">
         <v>135</v>
       </c>
